--- a/xlslist/p_hit_class.xlsx
+++ b/xlslist/p_hit_class.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>87.67069158667599</v>
+        <v>89.51015903888973</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>92.41811367064878</v>
+        <v>94.14175759316585</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>90.23997034495953</v>
+        <v>92.30137333371246</v>
       </c>
     </row>
     <row r="5">
@@ -505,7 +505,7 @@
         <v>5.88235294117647</v>
       </c>
       <c r="D5" t="n">
-        <v>44.4268565801496</v>
+        <v>85.97876663481171</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.702702702702703</v>
+        <v>2.941176470588236</v>
       </c>
       <c r="D6" t="n">
-        <v>78.03091078145165</v>
+        <v>82.26939119452892</v>
       </c>
     </row>
     <row r="7">
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.960784313725491</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>78.74391014196863</v>
+        <v>82.08288518084234</v>
       </c>
     </row>
     <row r="8">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8547008547008553</v>
+        <v>0.9803921568627446</v>
       </c>
       <c r="D8" t="n">
-        <v>57.62928527380805</v>
+        <v>76.1946382788903</v>
       </c>
     </row>
     <row r="9">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.194174757281554</v>
+        <v>0.2777777777777774</v>
       </c>
       <c r="D9" t="n">
-        <v>33.95503095736237</v>
+        <v>70.97284275433343</v>
       </c>
     </row>
   </sheetData>
